--- a/2023-05/202305/05_結合テスト/04-結合テストエビデンス/結合テストエビデンス .XLSX
+++ b/2023-05/202305/05_結合テスト/04-結合テストエビデンス/結合テストエビデンス .XLSX
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传 5月\2023-05\2023-05\202305\05_結合テスト\04-結合テストエビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6E244C-F2D4-4A70-BFB5-24A128DA888B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795A7FAE-D61C-4AF2-8488-59021413DAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="エビデンス" sheetId="1" r:id="rId1"/>
@@ -279,8 +279,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="246239" y="347041"/>
-          <a:ext cx="8108815" cy="4451857"/>
+          <a:off x="246239" y="355738"/>
+          <a:ext cx="8145120" cy="4562292"/>
           <a:chOff x="323850" y="346428"/>
           <a:chExt cx="8105134" cy="4439586"/>
         </a:xfrm>
@@ -547,8 +547,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="140958" y="5008031"/>
-          <a:ext cx="10948219" cy="4923961"/>
+          <a:off x="144133" y="5132684"/>
+          <a:ext cx="10989218" cy="5039918"/>
           <a:chOff x="140958" y="4994533"/>
           <a:chExt cx="10943311" cy="4911077"/>
         </a:xfrm>
@@ -661,8 +661,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="226483" y="10442928"/>
-          <a:ext cx="11144924" cy="4923161"/>
+          <a:off x="226483" y="10693753"/>
+          <a:ext cx="11189098" cy="5045468"/>
           <a:chOff x="64206" y="10442928"/>
           <a:chExt cx="11140016" cy="4910277"/>
         </a:xfrm>
@@ -955,8 +955,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="230998" y="22166334"/>
-          <a:ext cx="13631532" cy="13353032"/>
+          <a:off x="230998" y="22701942"/>
+          <a:ext cx="13686749" cy="13675641"/>
           <a:chOff x="167499" y="21706419"/>
           <a:chExt cx="13590119" cy="13108695"/>
         </a:xfrm>
@@ -1595,8 +1595,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="523876" y="55465870"/>
-          <a:ext cx="13631532" cy="13354182"/>
+          <a:off x="520701" y="56818696"/>
+          <a:ext cx="13693099" cy="13671268"/>
           <a:chOff x="167499" y="21706419"/>
           <a:chExt cx="13590119" cy="13108695"/>
         </a:xfrm>
@@ -2126,8 +2126,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="68866918"/>
-          <a:ext cx="10109078" cy="5977498"/>
+          <a:off x="0" y="70548701"/>
+          <a:ext cx="10150905" cy="6117889"/>
           <a:chOff x="718039" y="71393539"/>
           <a:chExt cx="10097185" cy="6060325"/>
         </a:xfrm>
@@ -2638,293 +2638,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>198669</xdr:colOff>
-      <xdr:row>351</xdr:row>
-      <xdr:rowOff>124025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>375</xdr:row>
-      <xdr:rowOff>94800</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="282" name="组合 281">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F719EBA-81E4-C7B5-B651-31E9719D3984}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="198669" y="79587373"/>
-          <a:ext cx="10294016" cy="5404166"/>
-          <a:chOff x="262169" y="79416475"/>
-          <a:chExt cx="10310581" cy="5457175"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="273" name="图片 272">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF2A90D-A553-9E56-6639-E29A52CAA73A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-          <a:srcRect t="6176" r="74"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="262169" y="79416475"/>
-            <a:ext cx="10310581" cy="5457175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="281" name="组合 280">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81FEC44C-71DE-D88F-C2C5-E41D3670239A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="1270000" y="84512150"/>
-            <a:ext cx="7067550" cy="355600"/>
-            <a:chOff x="1270000" y="84512150"/>
-            <a:chExt cx="7067550" cy="355600"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="274" name="流程图: 过程 273">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C4A78E-EA78-0A16-5D9B-8E3F215D8E18}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1270000" y="84543900"/>
-              <a:ext cx="1111250" cy="311150"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="275" name="流程图: 过程 274">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3323B6D-C2FA-4085-A0F0-C2FF798775EF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2508250" y="84524850"/>
-              <a:ext cx="1111250" cy="311150"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="276" name="流程图: 过程 275">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8352869D-8E45-4AB0-8FBF-477AFAEB4713}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3644900" y="84512150"/>
-              <a:ext cx="596900" cy="285750"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="277" name="流程图: 过程 276">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0A0F69-47E8-422A-B891-21780F9E1B0B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7473950" y="84569300"/>
-              <a:ext cx="863600" cy="298450"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartProcess">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>679450</xdr:colOff>
       <xdr:row>306</xdr:row>
@@ -3014,7 +2727,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3400,8 +3113,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="184150" y="91292846"/>
-          <a:ext cx="10150308" cy="6119233"/>
+          <a:off x="180975" y="93518107"/>
+          <a:ext cx="10198071" cy="6271495"/>
           <a:chOff x="654050" y="92100400"/>
           <a:chExt cx="10166873" cy="6178868"/>
         </a:xfrm>
@@ -3420,7 +3133,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -3672,8 +3385,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="242680" y="97450137"/>
-          <a:ext cx="9541780" cy="5962683"/>
+          <a:off x="239505" y="99827660"/>
+          <a:ext cx="9586782" cy="6106248"/>
           <a:chOff x="590550" y="97494311"/>
           <a:chExt cx="9541780" cy="5962683"/>
         </a:xfrm>
@@ -3692,7 +3405,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -3950,8 +3663,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="221506" y="103493959"/>
-          <a:ext cx="10277398" cy="3070086"/>
+          <a:off x="218331" y="106014219"/>
+          <a:ext cx="10321986" cy="3148218"/>
           <a:chOff x="177332" y="103532611"/>
           <a:chExt cx="10277398" cy="3070086"/>
         </a:xfrm>
@@ -3989,7 +3702,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
             <a:srcRect b="5120"/>
             <a:stretch/>
           </xdr:blipFill>
@@ -4337,8 +4050,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="165653" y="107718086"/>
-          <a:ext cx="9258776" cy="5632739"/>
+          <a:off x="162478" y="110337737"/>
+          <a:ext cx="9301018" cy="5773958"/>
           <a:chOff x="320262" y="107723608"/>
           <a:chExt cx="9258776" cy="5632739"/>
         </a:xfrm>
@@ -4357,7 +4070,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -4509,8 +4222,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="179767" y="113499347"/>
-          <a:ext cx="9478451" cy="3946402"/>
+          <a:off x="182942" y="116265739"/>
+          <a:ext cx="9510753" cy="4043446"/>
           <a:chOff x="107985" y="113648434"/>
           <a:chExt cx="9478451" cy="3946402"/>
         </a:xfrm>
@@ -4529,7 +4242,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -4623,7 +4336,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4907,22 +4620,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>542653</xdr:colOff>
+      <xdr:colOff>476392</xdr:colOff>
       <xdr:row>210</xdr:row>
-      <xdr:rowOff>177135</xdr:rowOff>
+      <xdr:rowOff>183485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>11372</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>632568</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>72721</xdr:rowOff>
+      <xdr:rowOff>66371</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="343" name="组合 342">
+        <xdr:cNvPr id="3" name="组合 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53834237-11B2-5FF7-B132-F0BE5775B55E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C85EA09-5A6B-6B92-0543-870246F28825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4930,47 +4643,220 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="542653" y="47719309"/>
-          <a:ext cx="9739154" cy="5781760"/>
-          <a:chOff x="867834" y="48993779"/>
-          <a:chExt cx="9735050" cy="5766096"/>
+          <a:off x="476392" y="48882049"/>
+          <a:ext cx="9783742" cy="5918975"/>
+          <a:chOff x="545828" y="48882049"/>
+          <a:chExt cx="9774217" cy="5918975"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="344" name="图片 343">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="343" name="组合 342">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F0BE77-6912-2695-0210-CFAEC535C178}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53834237-11B2-5FF7-B132-F0BE5775B55E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="867834" y="48993779"/>
-            <a:ext cx="9735050" cy="5766096"/>
+            <a:off x="542653" y="48885224"/>
+            <a:ext cx="9780567" cy="5912625"/>
+            <a:chOff x="867834" y="48993779"/>
+            <a:chExt cx="9735050" cy="5766096"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="344" name="图片 343">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F0BE77-6912-2695-0210-CFAEC535C178}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="867834" y="48993779"/>
+              <a:ext cx="9735050" cy="5766096"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="345" name="流程图: 过程 344">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A045C6AA-F7C5-0398-4BC8-230A01A7F63A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1968500" y="50397835"/>
+              <a:ext cx="1051278" cy="352776"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="346" name="流程图: 过程 345">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38917A1-6442-D6A8-9033-E15B8635CDFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1905000" y="51145724"/>
+              <a:ext cx="853722" cy="430387"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="347" name="流程图: 过程 346">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF045C7-465C-F479-2F31-13F0B347DDFA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1975557" y="52027667"/>
+              <a:ext cx="627944" cy="380999"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="345" name="流程图: 过程 344">
+          <xdr:cNvPr id="2" name="对话气泡: 圆角矩形 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A045C6AA-F7C5-0398-4BC8-230A01A7F63A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DF371D-E3C6-4FF9-BA96-AAE6C171A242}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4978,33 +4864,29 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1968500" y="50397835"/>
-            <a:ext cx="1051278" cy="352776"/>
+            <a:off x="7190413" y="49484747"/>
+            <a:ext cx="1659685" cy="557247"/>
           </a:xfrm>
-          <a:prstGeom prst="flowChartProcess">
-            <a:avLst/>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -107099"/>
+              <a:gd name="adj2" fmla="val -18512"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
           </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="28575">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
           </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent2"/>
           </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="dk1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
@@ -5012,16 +4894,326 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>遷移成功</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>201844</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>120850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>94800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="组合 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DF73A9-2FD9-76F8-7896-D03714D40B56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="198669" y="81525503"/>
+          <a:ext cx="10329079" cy="5536688"/>
+          <a:chOff x="201844" y="81522328"/>
+          <a:chExt cx="10329079" cy="5539863"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="282" name="组合 281">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F719EBA-81E4-C7B5-B651-31E9719D3984}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="198669" y="81525503"/>
+            <a:ext cx="10329079" cy="5536688"/>
+            <a:chOff x="262169" y="79416475"/>
+            <a:chExt cx="10310581" cy="5457175"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="273" name="图片 272">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF2A90D-A553-9E56-6639-E29A52CAA73A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:srcRect t="6176" r="74"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="262169" y="79416475"/>
+              <a:ext cx="10310581" cy="5457175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="281" name="组合 280">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81FEC44C-71DE-D88F-C2C5-E41D3670239A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1270000" y="84512150"/>
+              <a:ext cx="7067550" cy="355600"/>
+              <a:chOff x="1270000" y="84512150"/>
+              <a:chExt cx="7067550" cy="355600"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="274" name="流程图: 过程 273">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C4A78E-EA78-0A16-5D9B-8E3F215D8E18}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1270000" y="84543900"/>
+                <a:ext cx="1111250" cy="311150"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartProcess">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="275" name="流程图: 过程 274">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3323B6D-C2FA-4085-A0F0-C2FF798775EF}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2508250" y="84524850"/>
+                <a:ext cx="1111250" cy="311150"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartProcess">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="276" name="流程图: 过程 275">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8352869D-8E45-4AB0-8FBF-477AFAEB4713}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3644900" y="84512150"/>
+                <a:ext cx="596900" cy="285750"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartProcess">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="277" name="流程图: 过程 276">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0A0F69-47E8-422A-B891-21780F9E1B0B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7473950" y="84569300"/>
+                <a:ext cx="863600" cy="298450"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartProcess">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="346" name="流程图: 过程 345">
+          <xdr:cNvPr id="4" name="对话气泡: 圆角矩形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38917A1-6442-D6A8-9033-E15B8635CDFB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C9F8D3-CBED-4F35-AA3D-2CA6FDB7540E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5029,33 +5221,29 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1905000" y="51145724"/>
-            <a:ext cx="853722" cy="430387"/>
+            <a:off x="5280213" y="85796165"/>
+            <a:ext cx="1643810" cy="544547"/>
           </a:xfrm>
-          <a:prstGeom prst="flowChartProcess">
-            <a:avLst/>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -95532"/>
+              <a:gd name="adj2" fmla="val 129683"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
           </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="28575">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
           </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent2"/>
           </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="dk1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
@@ -5063,58 +5251,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="347" name="流程图: 过程 346">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF045C7-465C-F479-2F31-13F0B347DDFA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1975557" y="52027667"/>
-            <a:ext cx="627944" cy="380999"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartProcess">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="28575">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>遷移成功</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -5384,7 +5524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B519" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A509" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P502" sqref="P502"/>
     </sheetView>
   </sheetViews>
